--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>168036</v>
+        <v>169430.6977861812</v>
       </c>
       <c r="C2">
-        <v>240350</v>
+        <v>241893.9159574704</v>
       </c>
       <c r="D2">
-        <v>281105</v>
+        <v>283060.0586359358</v>
       </c>
       <c r="E2">
-        <v>311584</v>
+        <v>313191.8597465972</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>207515</v>
+        <v>209135.9838772114</v>
       </c>
       <c r="C3">
-        <v>295200</v>
+        <v>297219.0650641177</v>
       </c>
       <c r="D3">
-        <v>341775</v>
+        <v>343277.4521467714</v>
       </c>
       <c r="E3">
-        <v>378102</v>
+        <v>379730.7953214425</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>172299</v>
+        <v>174098.9818665953</v>
       </c>
       <c r="C4">
-        <v>251566</v>
+        <v>253160.8157205949</v>
       </c>
       <c r="D4">
-        <v>296961</v>
+        <v>298968.5121198925</v>
       </c>
       <c r="E4">
-        <v>336770</v>
+        <v>338343.8714689615</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>146349</v>
+        <v>147464.2470118034</v>
       </c>
       <c r="C5">
-        <v>206388</v>
+        <v>207532.1107858467</v>
       </c>
       <c r="D5">
-        <v>232645</v>
+        <v>234189.4797150494</v>
       </c>
       <c r="E5">
-        <v>258066</v>
+        <v>259128.2415958154</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>127699</v>
+        <v>128733.317337992</v>
       </c>
       <c r="C6">
-        <v>179322</v>
+        <v>180510.6698533363</v>
       </c>
       <c r="D6">
-        <v>204490</v>
+        <v>205533.8476639566</v>
       </c>
       <c r="E6">
-        <v>224360</v>
+        <v>225093.1384554107</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14010</v>
+        <v>14082.77606334089</v>
       </c>
       <c r="C7">
-        <v>19470</v>
+        <v>19577.09992256755</v>
       </c>
       <c r="D7">
-        <v>22200</v>
+        <v>22327.60211087606</v>
       </c>
       <c r="E7">
-        <v>24105</v>
+        <v>24181.9562674005</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>680621</v>
+        <v>685707.0930218007</v>
       </c>
       <c r="C8">
-        <v>973968</v>
+        <v>978128.3897573499</v>
       </c>
       <c r="D8">
-        <v>1143147</v>
+        <v>1149091.596612659</v>
       </c>
       <c r="E8">
-        <v>1247668</v>
+        <v>1254415.841368718</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>193640</v>
+        <v>194822.216171219</v>
       </c>
       <c r="C9">
-        <v>271170</v>
+        <v>272649.7730737954</v>
       </c>
       <c r="D9">
-        <v>307970</v>
+        <v>309371.3585756671</v>
       </c>
       <c r="E9">
-        <v>334512</v>
+        <v>336415.5321210327</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>83259</v>
+        <v>83634.44360114353</v>
       </c>
       <c r="C10">
-        <v>112746</v>
+        <v>113168.5857715539</v>
       </c>
       <c r="D10">
-        <v>128064</v>
+        <v>128230.0902425338</v>
       </c>
       <c r="E10">
-        <v>134590</v>
+        <v>135030.7673417571</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15152</v>
+        <v>15240.88519867454</v>
       </c>
       <c r="C11">
-        <v>19455</v>
+        <v>19544.27846766622</v>
       </c>
       <c r="D11">
-        <v>21750</v>
+        <v>21889.30843569281</v>
       </c>
       <c r="E11">
-        <v>24800</v>
+        <v>24883.75676046553</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>33969</v>
+        <v>34115.22387689986</v>
       </c>
       <c r="C12">
-        <v>46040</v>
+        <v>46293.74056691535</v>
       </c>
       <c r="D12">
-        <v>49800</v>
+        <v>50055.43273309209</v>
       </c>
       <c r="E12">
-        <v>50427</v>
+        <v>50610.91881612577</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>46599</v>
+        <v>46880.94198278337</v>
       </c>
       <c r="C13">
-        <v>62496</v>
+        <v>62802.34822430048</v>
       </c>
       <c r="D13">
-        <v>71638</v>
+        <v>71774.72900780063</v>
       </c>
       <c r="E13">
-        <v>76146</v>
+        <v>76450.36066295965</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Fiets.xlsx
@@ -391,13 +391,13 @@
         <v>169430.6977861812</v>
       </c>
       <c r="C2">
-        <v>241893.9159574704</v>
+        <v>241893.9159574706</v>
       </c>
       <c r="D2">
         <v>283060.0586359358</v>
       </c>
       <c r="E2">
-        <v>313191.8597465972</v>
+        <v>313191.8597465971</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>209135.9838772114</v>
+        <v>209135.9838772113</v>
       </c>
       <c r="C3">
-        <v>297219.0650641177</v>
+        <v>297219.0650641176</v>
       </c>
       <c r="D3">
-        <v>343277.4521467714</v>
+        <v>343277.4521467715</v>
       </c>
       <c r="E3">
-        <v>379730.7953214425</v>
+        <v>379730.7953214429</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,13 +422,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>174098.9818665953</v>
+        <v>174098.9818665952</v>
       </c>
       <c r="C4">
-        <v>253160.8157205949</v>
+        <v>253160.815720595</v>
       </c>
       <c r="D4">
-        <v>298968.5121198925</v>
+        <v>298968.5121198924</v>
       </c>
       <c r="E4">
         <v>338343.8714689615</v>
@@ -445,10 +445,10 @@
         <v>207532.1107858467</v>
       </c>
       <c r="D5">
-        <v>234189.4797150494</v>
+        <v>234189.4797150493</v>
       </c>
       <c r="E5">
-        <v>259128.2415958154</v>
+        <v>259128.2415958155</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -459,13 +459,13 @@
         <v>128733.317337992</v>
       </c>
       <c r="C6">
-        <v>180510.6698533363</v>
+        <v>180510.6698533364</v>
       </c>
       <c r="D6">
-        <v>205533.8476639566</v>
+        <v>205533.8476639565</v>
       </c>
       <c r="E6">
-        <v>225093.1384554107</v>
+        <v>225093.1384554108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -482,7 +482,7 @@
         <v>22327.60211087606</v>
       </c>
       <c r="E7">
-        <v>24181.9562674005</v>
+        <v>24181.95626740049</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>685707.0930218007</v>
+        <v>685707.0930218002</v>
       </c>
       <c r="C8">
-        <v>978128.3897573499</v>
+        <v>978128.3897573497</v>
       </c>
       <c r="D8">
         <v>1149091.596612659</v>
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>194822.216171219</v>
+        <v>194822.2161712189</v>
       </c>
       <c r="C9">
-        <v>272649.7730737954</v>
+        <v>272649.7730737955</v>
       </c>
       <c r="D9">
-        <v>309371.3585756671</v>
+        <v>309371.3585756674</v>
       </c>
       <c r="E9">
-        <v>336415.5321210327</v>
+        <v>336415.5321210328</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>83634.44360114353</v>
+        <v>83634.44360114356</v>
       </c>
       <c r="C10">
-        <v>113168.5857715539</v>
+        <v>113168.5857715538</v>
       </c>
       <c r="D10">
-        <v>128230.0902425338</v>
+        <v>128230.0902425339</v>
       </c>
       <c r="E10">
-        <v>135030.7673417571</v>
+        <v>135030.7673417572</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -544,13 +544,13 @@
         <v>15240.88519867454</v>
       </c>
       <c r="C11">
-        <v>19544.27846766622</v>
+        <v>19544.27846766623</v>
       </c>
       <c r="D11">
-        <v>21889.30843569281</v>
+        <v>21889.30843569282</v>
       </c>
       <c r="E11">
-        <v>24883.75676046553</v>
+        <v>24883.7567604655</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>34115.22387689986</v>
+        <v>34115.22387689985</v>
       </c>
       <c r="C12">
         <v>46293.74056691535</v>
       </c>
       <c r="D12">
-        <v>50055.43273309209</v>
+        <v>50055.43273309211</v>
       </c>
       <c r="E12">
-        <v>50610.91881612577</v>
+        <v>50610.91881612576</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>46880.94198278337</v>
+        <v>46880.94198278336</v>
       </c>
       <c r="C13">
-        <v>62802.34822430048</v>
+        <v>62802.34822430047</v>
       </c>
       <c r="D13">
-        <v>71774.72900780063</v>
+        <v>71774.72900780066</v>
       </c>
       <c r="E13">
-        <v>76450.36066295965</v>
+        <v>76450.36066295963</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaalproduct_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>169430.6977861812</v>
+        <v>169431</v>
       </c>
       <c r="C2">
-        <v>241893.9159574706</v>
+        <v>241894</v>
       </c>
       <c r="D2">
-        <v>283060.0586359358</v>
+        <v>283060</v>
       </c>
       <c r="E2">
-        <v>313191.8597465971</v>
+        <v>313192</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>209135.9838772113</v>
+        <v>209136</v>
       </c>
       <c r="C3">
-        <v>297219.0650641176</v>
+        <v>297219</v>
       </c>
       <c r="D3">
-        <v>343277.4521467715</v>
+        <v>343277</v>
       </c>
       <c r="E3">
-        <v>379730.7953214429</v>
+        <v>379731</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>174098.9818665952</v>
+        <v>174099</v>
       </c>
       <c r="C4">
-        <v>253160.815720595</v>
+        <v>253161</v>
       </c>
       <c r="D4">
-        <v>298968.5121198924</v>
+        <v>298969</v>
       </c>
       <c r="E4">
-        <v>338343.8714689615</v>
+        <v>338344</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>147464.2470118034</v>
+        <v>147464</v>
       </c>
       <c r="C5">
-        <v>207532.1107858467</v>
+        <v>207532</v>
       </c>
       <c r="D5">
-        <v>234189.4797150493</v>
+        <v>234189</v>
       </c>
       <c r="E5">
-        <v>259128.2415958155</v>
+        <v>259128</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>128733.317337992</v>
+        <v>128733</v>
       </c>
       <c r="C6">
-        <v>180510.6698533364</v>
+        <v>180511</v>
       </c>
       <c r="D6">
-        <v>205533.8476639565</v>
+        <v>205534</v>
       </c>
       <c r="E6">
-        <v>225093.1384554108</v>
+        <v>225093</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14082.77606334089</v>
+        <v>14083</v>
       </c>
       <c r="C7">
-        <v>19577.09992256755</v>
+        <v>19577</v>
       </c>
       <c r="D7">
-        <v>22327.60211087606</v>
+        <v>22328</v>
       </c>
       <c r="E7">
-        <v>24181.95626740049</v>
+        <v>24182</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>685707.0930218002</v>
+        <v>685707</v>
       </c>
       <c r="C8">
-        <v>978128.3897573497</v>
+        <v>978128</v>
       </c>
       <c r="D8">
-        <v>1149091.596612659</v>
+        <v>1149092</v>
       </c>
       <c r="E8">
-        <v>1254415.841368718</v>
+        <v>1254416</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>194822.2161712189</v>
+        <v>194822</v>
       </c>
       <c r="C9">
-        <v>272649.7730737955</v>
+        <v>272650</v>
       </c>
       <c r="D9">
-        <v>309371.3585756674</v>
+        <v>309371</v>
       </c>
       <c r="E9">
-        <v>336415.5321210328</v>
+        <v>336416</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>83634.44360114356</v>
+        <v>83634</v>
       </c>
       <c r="C10">
-        <v>113168.5857715538</v>
+        <v>113169</v>
       </c>
       <c r="D10">
-        <v>128230.0902425339</v>
+        <v>128230</v>
       </c>
       <c r="E10">
-        <v>135030.7673417572</v>
+        <v>135031</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15240.88519867454</v>
+        <v>15241</v>
       </c>
       <c r="C11">
-        <v>19544.27846766623</v>
+        <v>19544</v>
       </c>
       <c r="D11">
-        <v>21889.30843569282</v>
+        <v>21889</v>
       </c>
       <c r="E11">
-        <v>24883.7567604655</v>
+        <v>24884</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>34115.22387689985</v>
+        <v>34115</v>
       </c>
       <c r="C12">
-        <v>46293.74056691535</v>
+        <v>46294</v>
       </c>
       <c r="D12">
-        <v>50055.43273309211</v>
+        <v>50055</v>
       </c>
       <c r="E12">
-        <v>50610.91881612576</v>
+        <v>50611</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>46880.94198278336</v>
+        <v>46881</v>
       </c>
       <c r="C13">
-        <v>62802.34822430047</v>
+        <v>62802</v>
       </c>
       <c r="D13">
-        <v>71774.72900780066</v>
+        <v>71775</v>
       </c>
       <c r="E13">
-        <v>76450.36066295963</v>
+        <v>76450</v>
       </c>
     </row>
   </sheetData>
